--- a/QA/QA documentation.xlsx
+++ b/QA/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\Desktop\The-challengers\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B073B741-75DD-401E-BB2B-070EABAD6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013BB91-A3E8-486F-8472-93515133CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0180F63E-B56E-4AB2-9A7A-CC4DA275236A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>The challengers</t>
   </si>
@@ -212,6 +212,81 @@
   </si>
   <si>
     <t>Show a sign for adding information about the event</t>
+  </si>
+  <si>
+    <t>Add information about event</t>
+  </si>
+  <si>
+    <t>Type information</t>
+  </si>
+  <si>
+    <t>Redirect to Main menu and event displayed in menu All events</t>
+  </si>
+  <si>
+    <t>Created on</t>
+  </si>
+  <si>
+    <t>13.02.2022</t>
+  </si>
+  <si>
+    <t>Add invalid year</t>
+  </si>
+  <si>
+    <t>Type invalid year</t>
+  </si>
+  <si>
+    <t>Show a sign for adding a valid year</t>
+  </si>
+  <si>
+    <t>Menu Delete an event</t>
+  </si>
+  <si>
+    <t>Display menu Delete an event properly</t>
+  </si>
+  <si>
+    <t>14.02.2022</t>
+  </si>
+  <si>
+    <t>Select an event to delete</t>
+  </si>
+  <si>
+    <t>Select an event and press Enter</t>
+  </si>
+  <si>
+    <t>Show a sign for confirmation</t>
+  </si>
+  <si>
+    <t>Confirm event deletion</t>
+  </si>
+  <si>
+    <t>Type 'y'</t>
+  </si>
+  <si>
+    <t>Event deleted</t>
+  </si>
+  <si>
+    <t>Deny event deletion</t>
+  </si>
+  <si>
+    <t>Type 'n'</t>
+  </si>
+  <si>
+    <t>Event not deleted</t>
+  </si>
+  <si>
+    <t>Type invalid command</t>
+  </si>
+  <si>
+    <t>Type neither 'y' nor 'no'</t>
+  </si>
+  <si>
+    <t>Show a message for typing a valid command</t>
+  </si>
+  <si>
+    <t>Exit menu Delete an event</t>
+  </si>
+  <si>
+    <t>Select Go back and press Enter</t>
   </si>
 </sst>
 </file>
@@ -305,15 +380,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -321,6 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,96 +718,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931410B-7D76-417B-B0D2-52C6C2F65006}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
@@ -740,394 +815,812 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>4</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B58" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B59" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F62" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>1</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
         <v>2</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A32:D32"/>
+  <mergeCells count="7">
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A4:G6"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/QA/QA documentation.xlsx
+++ b/QA/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\Desktop\The-challengers\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013BB91-A3E8-486F-8472-93515133CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CDB9EF-97D0-4700-AE46-6836C5937185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0180F63E-B56E-4AB2-9A7A-CC4DA275236A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="93">
   <si>
     <t>The challengers</t>
   </si>
@@ -287,6 +287,33 @@
   </si>
   <si>
     <t>Select Go back and press Enter</t>
+  </si>
+  <si>
+    <t>Display menu Quiz properly</t>
+  </si>
+  <si>
+    <t>Menu Quiz</t>
+  </si>
+  <si>
+    <t>Select an answer</t>
+  </si>
+  <si>
+    <t>Select an answer and press Enter</t>
+  </si>
+  <si>
+    <t>Show next question</t>
+  </si>
+  <si>
+    <t>Select last answer</t>
+  </si>
+  <si>
+    <t>Show your final score and percentage</t>
+  </si>
+  <si>
+    <t>Exit menu Quiz</t>
+  </si>
+  <si>
+    <t>Press any key after finishing test</t>
   </si>
 </sst>
 </file>
@@ -316,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -397,6 +430,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,20 +752,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931410B-7D76-417B-B0D2-52C6C2F65006}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -804,13 +838,13 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -818,13 +852,13 @@
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -832,7 +866,7 @@
       <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -988,13 +1022,13 @@
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1002,13 +1036,13 @@
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1016,7 +1050,7 @@
       <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1172,13 +1206,13 @@
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1186,13 +1220,13 @@
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1200,7 +1234,7 @@
       <c r="C45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1316,13 +1350,13 @@
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1330,13 +1364,13 @@
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1344,7 +1378,7 @@
       <c r="C60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1460,13 +1494,13 @@
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1474,13 +1508,13 @@
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1488,7 +1522,7 @@
       <c r="C75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1612,8 +1646,133 @@
         <v>18</v>
       </c>
     </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A57:D57"/>
